--- a/medicine/Enfance/Gérard_Pussey/Gérard_Pussey.xlsx
+++ b/medicine/Enfance/Gérard_Pussey/Gérard_Pussey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pussey</t>
+          <t>Gérard_Pussey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Pussey est un écrivain français né le 20 juin 1947 à Villeneuve-Saint-Georges.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pussey</t>
+          <t>Gérard_Pussey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Journaliste et critique littéraire, Gérard Pussey est avant tout un romancier. Initié à la littérature par son oncle, l'écrivain et scénariste René Fallet, Gérard Pussey est notamment lauréat des prix Roger-Nimier, obtenu en 1980, Alexandre-Vialatte et de la Société des gens de lettres[1]en 1993. Il a figuré plusieurs fois sur les dernières listes des prix Renaudot et Interallié. Il s'attache dans ses livres à retrouver ses souvenirs d'enfance et à décrire le monde de la jeunesse.https://www.youtube.com/watch?v=AaTb78FBlH0&amp;ab_channel=PicPortraitIntimeCulturel
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Journaliste et critique littéraire, Gérard Pussey est avant tout un romancier. Initié à la littérature par son oncle, l'écrivain et scénariste René Fallet, Gérard Pussey est notamment lauréat des prix Roger-Nimier, obtenu en 1980, Alexandre-Vialatte et de la Société des gens de lettresen 1993. Il a figuré plusieurs fois sur les dernières listes des prix Renaudot et Interallié. Il s'attache dans ses livres à retrouver ses souvenirs d'enfance et à décrire le monde de la jeunesse.https://www.youtube.com/watch?v=AaTb78FBlH0&amp;ab_channel=PicPortraitIntimeCulturel
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pussey</t>
+          <t>Gérard_Pussey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1980 : Prix Roger-Nimier pour L'Homme d'intérieur
 1983 : Prix Contrepoint pour L'Amour tombé du lit
-1988 : (international) « Honour List »[2] de l' IBBY, Catégorie Auteur, pour ''Fiston marie Gros Papa (illustré par Michel Gay)
-1993 : Grand Prix SGDL du roman jeunesse[1] pour Piquanchâgne
+1988 : (international) « Honour List » de l' IBBY, Catégorie Auteur, pour ''Fiston marie Gros Papa (illustré par Michel Gay)
+1993 : Grand Prix SGDL du roman jeunesse pour Piquanchâgne
 1995 : Prix Alexandre-Vialatte pour Menteur</t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Pussey</t>
+          <t>Gérard_Pussey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Romans
 Châteaux en Afrique (1976), Denoël
 L'Homme d'intérieur (1979), Denoël – prix Roger-Nimier 1980
 L'amour tombé du lit (1982), Denoël – prix Contrepoint 1983
-Piquanchâgne (1992), Médium – Grand Prix SGDL du roman jeunesse[1] 1993
+Piquanchâgne (1992), Médium – Grand Prix SGDL du roman jeunesse 1993
 Ma virée avec mon père (1994), Gallimard
 Robinson malgré lui (2001), Nil
 Nous deux,   rue Bleue (2002), ill. Philippe Dumas, Gallimard
